--- a/info-research-plan/Bimbo_Notes.xlsx
+++ b/info-research-plan/Bimbo_Notes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="460" windowWidth="20400" windowHeight="14060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3500" yWindow="460" windowWidth="20400" windowHeight="14060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WIP" sheetId="1" r:id="rId1"/>
     <sheet name="Fields" sheetId="3" r:id="rId2"/>
-    <sheet name="Submissions" sheetId="2" r:id="rId3"/>
+    <sheet name="XGB Tuning" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>File descriptions</t>
   </si>
@@ -104,6 +104,33 @@
   </si>
   <si>
     <t>train and test</t>
+  </si>
+  <si>
+    <t>choose a high learning rate</t>
+  </si>
+  <si>
+    <t>alpha = 0.05 - 0.3</t>
+  </si>
+  <si>
+    <t>determine the optimim numbers of tree for this rate</t>
+  </si>
+  <si>
+    <t>use xgb.cv</t>
+  </si>
+  <si>
+    <t>max_depth = 5</t>
+  </si>
+  <si>
+    <t>min_child_weight = 1</t>
+  </si>
+  <si>
+    <t>gamma = 0</t>
+  </si>
+  <si>
+    <t>subsample, colsample_bytree = 0.8</t>
+  </si>
+  <si>
+    <t>scale_pos_weight = 1</t>
   </si>
 </sst>
 </file>
@@ -526,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,10 +722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E28"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -726,13 +753,60 @@
     <col min="22" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="4"/>
-    </row>
-    <row r="4" spans="3:3" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/info-research-plan/Bimbo_Notes.xlsx
+++ b/info-research-plan/Bimbo_Notes.xlsx
@@ -15,6 +15,7 @@
     <sheet name="WIP" sheetId="1" r:id="rId1"/>
     <sheet name="Fields" sheetId="3" r:id="rId2"/>
     <sheet name="XGB Tuning" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>File descriptions</t>
   </si>
@@ -131,6 +132,18 @@
   </si>
   <si>
     <t>scale_pos_weight = 1</t>
+  </si>
+  <si>
+    <t>Important features:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I    "H"    "A"    "G"    "GMAX" "C"  </t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>c("AA","AB","AA1","AB1","B","C","D","E","G","ABMAX")</t>
   </si>
 </sst>
 </file>
@@ -724,14 +737,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="59.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.1640625" style="3" customWidth="1"/>
@@ -753,7 +766,7 @@
     <col min="22" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -764,35 +777,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -803,8 +816,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="25" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -812,4 +840,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info-research-plan/Bimbo_Notes.xlsx
+++ b/info-research-plan/Bimbo_Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="460" windowWidth="20400" windowHeight="14060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9900" yWindow="460" windowWidth="20400" windowHeight="14060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WIP" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>File descriptions</t>
   </si>
@@ -137,13 +137,22 @@
     <t>Important features:</t>
   </si>
   <si>
-    <t xml:space="preserve">I    "H"    "A"    "G"    "GMAX" "C"  </t>
-  </si>
-  <si>
     <t>from</t>
   </si>
   <si>
     <t>c("AA","AB","AA1","AB1","B","C","D","E","G","ABMAX")</t>
+  </si>
+  <si>
+    <t>"G"     "B"     "C"     "D"     "AB"    "ABMAX"</t>
+  </si>
+  <si>
+    <t>c("AA","AB","AA1","AB1","B","C","D","E","B1","C1","D1","E1","G1","ABMAX")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I"    "H"    "G"    "A"    "GMAX" "C" </t>
+  </si>
+  <si>
+    <t>c("I","H","A","GMAX","C" ,"G","B","D","AB","ABMAX")</t>
   </si>
 </sst>
 </file>
@@ -738,7 +747,7 @@
   <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -824,16 +833,38 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
